--- a/data.xlsx
+++ b/data.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Nextcloud2\smb\school\masters\csc786\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D6026-4CAE-4F32-AA0A-5F97C8426317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5ED31-9DF4-4869-A925-E1868D78494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B91D4FD5-CC5F-4FBE-BA24-5351C764C1B6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B91D4FD5-CC5F-4FBE-BA24-5351C764C1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$LT$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$54</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$54:$LP$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$55</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$55:$OW$55</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$56</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$56:$JC$56</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$OZ$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$NY$3</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$54:$LP$54</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$LT$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$NY$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$OZ$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$56</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$56:$JC$56</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$55</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$55:$OW$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>malloc</t>
   </si>
@@ -79,12 +79,75 @@
   <si>
     <t>libc 2.31</t>
   </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances for Malloc</t>
+  </si>
+  <si>
+    <t>Malloc 2.32</t>
+  </si>
+  <si>
+    <t>Malloc 2.31</t>
+  </si>
+  <si>
+    <t>Traversal 2.32</t>
+  </si>
+  <si>
+    <t>Traversal 2.31</t>
+  </si>
+  <si>
+    <t>Free 2.32</t>
+  </si>
+  <si>
+    <t>Free 2.31</t>
+  </si>
+  <si>
+    <t>&lt;- Statistically significant!</t>
+  </si>
+  <si>
+    <t>&lt;- Not statistically significant</t>
+  </si>
+  <si>
+    <t>&lt;- Not statistically significant, but starting to approach it.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +155,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,12 +186,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +240,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -175,7 +278,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{340AC810-6149-4C7A-A4AD-615439F33B0D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>malloc</cx:v>
             </cx:txData>
           </cx:tx>
@@ -233,7 +336,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -271,7 +374,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2EF81EB0-AA5D-4F88-A932-FFC63E047FC4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>traversal</cx:v>
             </cx:txData>
           </cx:tx>
@@ -329,7 +432,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -367,7 +470,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DFE4A8CC-4CDD-4A46-AF78-3128E541EC1E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -425,7 +528,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -463,7 +566,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A2AF834F-DA15-43AF-A02A-E8DD192B8C4A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>malloc</cx:v>
             </cx:txData>
           </cx:tx>
@@ -521,7 +624,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -559,7 +662,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{44079D76-1E31-4104-8A0E-E299047AA853}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>traversal</cx:v>
             </cx:txData>
           </cx:tx>
@@ -617,7 +720,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -655,7 +758,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C4ABFD80-269E-4D5F-BFB7-29673090BCF9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>free</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4810,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074BDEA1-14B6-43C3-A127-BF7757F3EFDE}">
   <dimension ref="A1:CW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,6 +4922,9 @@
     <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
@@ -5805,8 +5911,11 @@
         <f>_xlfn.STDEV.S(B2:CX2)</f>
         <v>3.539636916070895E-2</v>
       </c>
+      <c r="U8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -5823,6 +5932,24 @@
         <f>MAX(B2:CX2)</f>
         <v>0.61528400000000005</v>
       </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="U11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.26872842000000008</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.2851267400000001</v>
+      </c>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5835,6 +5962,15 @@
         <f>AVERAGE(B3:CX3)</f>
         <v>26.698438220000003</v>
       </c>
+      <c r="U12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.2529029497611874E-3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>7.4725893306302994E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -5844,6 +5980,15 @@
         <f>MEDIAN(B3:CX3)</f>
         <v>27.599452499999998</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="1">
+        <v>100</v>
+      </c>
+      <c r="W13" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -5853,6 +5998,13 @@
         <f>_xlfn.STDEV.S(B3:CX3)</f>
         <v>2.2266064209088676</v>
       </c>
+      <c r="U14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -5862,6 +6014,13 @@
         <f>MIN(B3:CX3)</f>
         <v>21.503862000000002</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="1">
+        <v>186</v>
+      </c>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -5871,8 +6030,24 @@
         <f>MAX(B3:CX3)</f>
         <v>28.983812</v>
       </c>
+      <c r="U16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-3.6666274356809025</v>
+      </c>
+      <c r="W16" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.6031564613578771E-4</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5883,8 +6058,15 @@
         <f>AVERAGE(B4:CX4)</f>
         <v>5.9278549999999972E-2</v>
       </c>
+      <c r="U18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.6530871383966401</v>
+      </c>
+      <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -5892,8 +6074,18 @@
         <f>MEDIAN(B4:CX4)</f>
         <v>5.9399E-2</v>
       </c>
+      <c r="U19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3.2063129227157542E-4</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -5901,8 +6093,15 @@
         <f>_xlfn.STDEV.S(B4:CX4)</f>
         <v>1.0202309143948094E-3</v>
       </c>
+      <c r="U20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1.9728001139954414</v>
+      </c>
+      <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -5911,7 +6110,7 @@
         <v>5.6371999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -5920,12 +6119,47 @@
         <v>6.1679999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="1">
+        <v>26.698438220000003</v>
+      </c>
+      <c r="W26" s="1">
+        <v>26.479223949999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.31</v>
       </c>
+      <c r="U27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4.9577761536325973</v>
+      </c>
+      <c r="W27" s="1">
+        <v>5.2770769324830775</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5936,8 +6170,17 @@
         <f>AVERAGE(B54:CX54)</f>
         <v>0.2851267400000001</v>
       </c>
+      <c r="U28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="1">
+        <v>100</v>
+      </c>
+      <c r="W28" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -5945,8 +6188,15 @@
         <f>MEDIAN(B54:CX54)</f>
         <v>0.27766599999999997</v>
       </c>
+      <c r="U29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -5954,8 +6204,15 @@
         <f>_xlfn.STDEV.S(B54:CX54)</f>
         <v>2.7336037259687623E-2</v>
       </c>
+      <c r="U30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="1">
+        <v>198</v>
+      </c>
+      <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>6</v>
       </c>
@@ -5963,8 +6220,15 @@
         <f>MIN(B54:CX54)</f>
         <v>0.27505099999999999</v>
       </c>
+      <c r="U31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.68521682007999873</v>
+      </c>
+      <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -5972,8 +6236,24 @@
         <f>MAX(B54:CX54)</f>
         <v>0.46978599999999998</v>
       </c>
+      <c r="U32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.24700425913781188</v>
+      </c>
+      <c r="W32" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1.6525857836178461</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5984,8 +6264,18 @@
         <f>AVERAGE(B55:CX55)</f>
         <v>26.479223949999994</v>
       </c>
+      <c r="U34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.49400851827562375</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -5993,8 +6283,15 @@
         <f>MEDIAN(B55:CX55)</f>
         <v>27.270047499999997</v>
       </c>
+      <c r="U35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1.9720174778363073</v>
+      </c>
+      <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -6003,7 +6300,7 @@
         <v>2.2971889196326623</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -6012,7 +6309,7 @@
         <v>21.532218</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -6020,8 +6317,12 @@
         <f>MAX(B55:CX55)</f>
         <v>30.746852000000001</v>
       </c>
+      <c r="U38" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -6032,8 +6333,15 @@
         <f>AVERAGE(B56:CX56)</f>
         <v>6.0860760000000041E-2</v>
       </c>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>4</v>
       </c>
@@ -6041,8 +6349,17 @@
         <f>MEDIAN(B56:CX56)</f>
         <v>5.7318499999999994E-2</v>
       </c>
+      <c r="U41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="1">
+        <v>5.9278549999999972E-2</v>
+      </c>
+      <c r="W41" s="1">
+        <v>6.0860760000000041E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>5</v>
       </c>
@@ -6050,8 +6367,17 @@
         <f>_xlfn.STDEV.S(B56:CX56)</f>
         <v>8.5968202990956318E-3</v>
       </c>
+      <c r="U42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1.0408711186868689E-6</v>
+      </c>
+      <c r="W42" s="1">
+        <v>7.3905319254942718E-5</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>6</v>
       </c>
@@ -6059,8 +6385,17 @@
         <f>MIN(B56:CX56)</f>
         <v>5.6623E-2</v>
       </c>
+      <c r="U43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" s="1">
+        <v>100</v>
+      </c>
+      <c r="W43" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>7</v>
       </c>
@@ -6068,6 +6403,70 @@
         <f>MAX(B56:CX56)</f>
         <v>0.12383</v>
       </c>
+      <c r="U44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45" s="1">
+        <v>102</v>
+      </c>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="1">
+        <v>-1.8276344853271151</v>
+      </c>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V47" s="1">
+        <v>3.5263925342086215E-2</v>
+      </c>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1.6599299759703381</v>
+      </c>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="U49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V49" s="4">
+        <v>7.052785068417243E-2</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1.9834952585628811</v>
+      </c>
+      <c r="W50" s="2"/>
     </row>
     <row r="53" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -7021,6 +7420,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>